--- a/Tester Results/INTRATRIAL_DIFFERENCES_SIGNIFICANT.xlsx
+++ b/Tester Results/INTRATRIAL_DIFFERENCES_SIGNIFICANT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.6285231512699483</v>
+        <v>-0.7091785794560574</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.4690654082692632</v>
+        <v>-0.5262288149492723</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0495636681270849</v>
+        <v>0.02487522547326793</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>-21.98268467582374</v>
+        <v>-24.63430813042534</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7327561558607913</v>
+        <v>-0.8211436043475113</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Animal15</t>
+          <t>Animal10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -530,17 +530,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-0.1506984126984127</v>
+        <v>-0.6486385762093094</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4760094585844524</v>
+        <v>-0.4825482588986023</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04584252908650156</v>
+        <v>0.04253624812529442</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -548,16 +548,16 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>-1.999999999999993</v>
+        <v>-16.71428571428572</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.06666666666666642</v>
+        <v>-0.5571428571428573</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal10</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -567,17 +567,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.01067501404607111</v>
+        <v>-0.6461712808031639</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.5005485581652552</v>
+        <v>-0.4808572873022811</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03437018969220387</v>
+        <v>0.0433732708338334</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -585,16 +585,16 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>-9.090909090909092</v>
+        <v>-16.45453896150275</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.303030303030303</v>
+        <v>-0.5484846320500917</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -604,17 +604,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.2578723404255319</v>
+        <v>-0.6960720832065717</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.4923307304558784</v>
+        <v>-0.5440076042756515</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04468254519838054</v>
+        <v>0.01960366624710583</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>-86.65345226296664</v>
+        <v>-21.16820673143512</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.888448408765555</v>
+        <v>-0.7056068910478375</v>
       </c>
     </row>
     <row r="6">
@@ -636,39 +636,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8110586710804277</v>
+        <v>-0.007116676030714098</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5436834351738349</v>
+        <v>-0.500548558165255</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01969116480101286</v>
+        <v>0.03437018969220398</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>increase</t>
+          <t>decrease</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>25.09530181923396</v>
+        <v>-6.250000000000027</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8365100606411319</v>
+        <v>-0.2083333333333342</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -678,34 +678,34 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.8106390823309518</v>
+        <v>-0.2578723404255319</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5015564004650559</v>
+        <v>-0.4923307304558784</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03395162033120588</v>
+        <v>0.04468254519838054</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>increase</t>
+          <t>decrease</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>41.93084609301994</v>
+        <v>-86.65345226296664</v>
       </c>
       <c r="I7" t="n">
-        <v>1.397694869767331</v>
+        <v>-2.888448408765555</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -715,17 +715,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.6843923611111111</v>
+        <v>0.7436195962279766</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4815299563311978</v>
+        <v>0.5098725786593615</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04303881374845801</v>
+        <v>0.03064595050191693</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -733,10 +733,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6.134969325153374</v>
+        <v>22.01933253369082</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2044989775051125</v>
+        <v>0.7339777511230274</v>
       </c>
     </row>
     <row r="9">
@@ -747,22 +747,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.690802025462963</v>
+        <v>0.8847144041482017</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4828483714089624</v>
+        <v>0.5323377263444812</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04238898989194669</v>
+        <v>0.02295229483770795</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -770,10 +770,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6.107245190339753</v>
+        <v>29.81573713365225</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2035748396779918</v>
+        <v>0.9938579044550749</v>
       </c>
     </row>
     <row r="10">
@@ -789,213 +789,28 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.6366721450617282</v>
+        <v>-0.3357967454712927</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4908901402675927</v>
+        <v>-0.4961954926696883</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03858591841133753</v>
+        <v>0.04278070709608574</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>increase</t>
+          <t>decrease</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3.748904469763369</v>
+        <v>-44.18073938840712</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1249634823254456</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Animal4</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0.1964475115740742</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.4878767321856509</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.03997905879685983</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>increase</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6.427542872103712</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.2142514290701237</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Animal4</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>-0.3357967454712927</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-0.4961954926696883</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.04278070709608574</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>decrease</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>-44.18073938840712</v>
-      </c>
-      <c r="I12" t="n">
         <v>-1.472691312946904</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Animal6</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>April16</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>reactionTime</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0.02521478359539633</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.5627204646942582</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.01504858349466826</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>increase</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10.47619047619047</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.3492063492063491</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Animal6</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>April16</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>-0.1460924582590372</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-0.4952512019483887</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.03663596838926476</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>decrease</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>-5.993801160295638</v>
-      </c>
-      <c r="I14" t="n">
-        <v>-0.1997933720098546</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Animal6</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>April16</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>-40.14171093370077</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-0.5064154077809759</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.03198846174388813</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>decrease</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>-7.389332886676855</v>
-      </c>
-      <c r="I15" t="n">
-        <v>-0.2463110962225618</v>
       </c>
     </row>
   </sheetData>

--- a/Tester Results/INTRATRIAL_DIFFERENCES_SIGNIFICANT.xlsx
+++ b/Tester Results/INTRATRIAL_DIFFERENCES_SIGNIFICANT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,44 +673,44 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.2578723404255319</v>
+        <v>0.7436195962279766</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.4923307304558784</v>
+        <v>0.5098725786593615</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04468254519838054</v>
+        <v>0.03064595050191693</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>decrease</t>
+          <t>increase</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>-86.65345226296664</v>
+        <v>22.01933253369082</v>
       </c>
       <c r="I7" t="n">
-        <v>-2.888448408765555</v>
+        <v>0.7339777511230274</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -719,13 +719,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.7436195962279766</v>
+        <v>0.8847144041482017</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5098725786593615</v>
+        <v>0.5323377263444812</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03064595050191693</v>
+        <v>0.02295229483770795</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -733,84 +733,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>22.01933253369082</v>
+        <v>29.81573713365225</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7339777511230274</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Animal4</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>June26</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0.8847144041482017</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.5323377263444812</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.02295229483770795</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>increase</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>29.81573713365225</v>
-      </c>
-      <c r="I9" t="n">
         <v>0.9938579044550749</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Animal4</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>-0.3357967454712927</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-0.4961954926696883</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.04278070709608574</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>decrease</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>-44.18073938840712</v>
-      </c>
-      <c r="I10" t="n">
-        <v>-1.472691312946904</v>
       </c>
     </row>
   </sheetData>

--- a/Tester Results/INTRATRIAL_DIFFERENCES_SIGNIFICANT.xlsx
+++ b/Tester Results/INTRATRIAL_DIFFERENCES_SIGNIFICANT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.7091785794560574</v>
+        <v>-0.6285231512699483</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.5262288149492723</v>
+        <v>-0.4690654082692632</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02487522547326793</v>
+        <v>0.0495636681270849</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>-24.63430813042534</v>
+        <v>-21.98268467582374</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.8211436043475113</v>
+        <v>-0.7327561558607913</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Animal10</t>
+          <t>Animal15</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -530,17 +530,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-0.6486385762093094</v>
+        <v>-0.1506984126984127</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4825482588986023</v>
+        <v>-0.4760094585844524</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04253624812529442</v>
+        <v>0.04584252908650156</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -548,16 +548,16 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>-16.71428571428572</v>
+        <v>-1.999999999999993</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.5571428571428573</v>
+        <v>-0.06666666666666642</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Animal10</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -567,17 +567,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.6461712808031639</v>
+        <v>-0.01067501404607111</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.4808572873022811</v>
+        <v>-0.5005485581652552</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0433732708338334</v>
+        <v>0.03437018969220387</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -585,53 +585,53 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>-16.45453896150275</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.5484846320500917</v>
+        <v>-0.303030303030303</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Animal10</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.6960720832065717</v>
+        <v>0.8110586710804277</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.5440076042756515</v>
+        <v>0.5436834351738349</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01960366624710583</v>
+        <v>0.01969116480101286</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>decrease</t>
+          <t>increase</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>-21.16820673143512</v>
+        <v>25.09530181923396</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.7056068910478375</v>
+        <v>0.8365100606411319</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -641,34 +641,34 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-0.007116676030714098</v>
+        <v>0.8106390823309518</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.500548558165255</v>
+        <v>0.5015564004650559</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03437018969220398</v>
+        <v>0.03395162033120588</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>decrease</t>
+          <t>increase</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>-6.250000000000027</v>
+        <v>41.93084609301994</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2083333333333342</v>
+        <v>1.397694869767331</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.7436195962279766</v>
+        <v>0.6843923611111111</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5098725786593615</v>
+        <v>0.4815299563311978</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03064595050191693</v>
+        <v>0.04303881374845801</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -696,10 +696,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>22.01933253369082</v>
+        <v>6.134969325153374</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7339777511230274</v>
+        <v>0.2044989775051125</v>
       </c>
     </row>
     <row r="8">
@@ -710,22 +710,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.8847144041482017</v>
+        <v>0.690802025462963</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5323377263444812</v>
+        <v>0.4828483714089624</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02295229483770795</v>
+        <v>0.04238898989194669</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -733,10 +733,195 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>29.81573713365225</v>
+        <v>6.107245190339753</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9938579044550749</v>
+        <v>0.2035748396779918</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Animal4</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PTTA</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6366721450617282</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4908901402675927</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.03858591841133753</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>increase</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3.748904469763369</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1249634823254456</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Animal4</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>RMS</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1964475115740742</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4878767321856509</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.03997905879685983</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>increase</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6.427542872103712</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.2142514290701237</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Animal6</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>April16</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>reactionTime</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.02521478359539633</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5627204646942582</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.01504858349466826</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>increase</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10.47619047619047</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.3492063492063491</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Animal6</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>April16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>RMS</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.1460924582590372</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.4952512019483887</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.03663596838926476</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>decrease</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>-5.993801160295638</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.1997933720098546</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Animal6</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>April16</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>-40.14171093370077</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.5064154077809759</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.03198846174388813</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>decrease</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>-7.389332886676855</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.2463110962225618</v>
       </c>
     </row>
   </sheetData>
